--- a/Tests/Validation/Canola/Harden1999.xlsx
+++ b/Tests/Validation/Canola/Harden1999.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lil026\ApsimX\Prototypes\Canola\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ApsimX\Tests\Validation\Canola\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF9C78F-58F2-4057-9D5C-342C87D52CB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4D98F2-1BFF-4783-910B-7E1F938BBBCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DCD4BBDB-2039-4016-B509-C04A516B8513}"/>
+    <workbookView xWindow="-27675" yWindow="1125" windowWidth="21600" windowHeight="11280" xr2:uid="{DCD4BBDB-2039-4016-B509-C04A516B8513}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="32">
   <si>
     <t>Canola.Density</t>
   </si>
@@ -74,12 +74,6 @@
     <t>Canola.Leaf.Dead.Wt</t>
   </si>
   <si>
-    <t>Canola.Grain.Nconc</t>
-  </si>
-  <si>
-    <t>Canola.Leaf.Live.Nconc</t>
-  </si>
-  <si>
     <t>treat</t>
   </si>
   <si>
@@ -101,12 +95,6 @@
     <t>Canola.Stage</t>
   </si>
   <si>
-    <t>Canola.Stem.Nconc</t>
-  </si>
-  <si>
-    <t>Canola.Pod.Nconc</t>
-  </si>
-  <si>
     <t>Canola.AboveGround.WtError</t>
   </si>
   <si>
@@ -132,6 +120,18 @@
   </si>
   <si>
     <t>Canola.DaysAfterSowing</t>
+  </si>
+  <si>
+    <t>Canola.Grain.NConc</t>
+  </si>
+  <si>
+    <t>Canola.Leaf.Live.NConc</t>
+  </si>
+  <si>
+    <t>Canola.Stem.NConc</t>
+  </si>
+  <si>
+    <t>Canola.Pod.NConc</t>
   </si>
 </sst>
 </file>
@@ -193,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -201,26 +201,14 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -239,9 +227,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -279,7 +267,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -385,7 +373,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -527,7 +515,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -537,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C11D26-4E0C-495C-A0BC-9CE09D11AC25}">
   <dimension ref="A1:AH83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,7 +544,7 @@
     <col min="12" max="12" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="28" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="23" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="21.7109375" bestFit="1" customWidth="1"/>
@@ -570,10 +558,10 @@
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -582,19 +570,19 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -609,49 +597,49 @@
         <v>10</v>
       </c>
       <c r="N1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="R1" t="s">
+      <c r="W1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="S1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="AA1" t="s">
         <v>0</v>
       </c>
       <c r="AB1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
@@ -664,10 +652,10 @@
       <c r="C2" s="1">
         <v>36298</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="14">
         <v>36361</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="5">
         <f>D2-C2</f>
         <v>63</v>
       </c>
@@ -690,7 +678,7 @@
       <c r="N2" s="6">
         <v>0.25297144457579934</v>
       </c>
-      <c r="O2" s="23"/>
+      <c r="O2" s="5"/>
       <c r="P2" s="6">
         <v>6.31</v>
       </c>
@@ -739,11 +727,11 @@
       <c r="C3" s="1">
         <v>36298</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="14">
         <v>36398</v>
       </c>
-      <c r="E3" s="21">
-        <f t="shared" ref="E3:E66" si="0">D3-C3</f>
+      <c r="E3" s="5">
+        <f t="shared" ref="E3:E9" si="0">D3-C3</f>
         <v>100</v>
       </c>
       <c r="F3" t="s">
@@ -765,7 +753,7 @@
       <c r="N3" s="6">
         <v>1.7329083333333333</v>
       </c>
-      <c r="O3" s="23"/>
+      <c r="O3" s="5"/>
       <c r="P3" s="6">
         <v>5.18</v>
       </c>
@@ -814,10 +802,10 @@
       <c r="C4" s="1">
         <v>36298</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="14">
         <v>36412</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="5">
         <f t="shared" si="0"/>
         <v>114</v>
       </c>
@@ -839,7 +827,7 @@
       <c r="N4" s="6">
         <v>2.3277906508551722</v>
       </c>
-      <c r="O4" s="23">
+      <c r="O4" s="5">
         <v>6</v>
       </c>
       <c r="P4" s="6">
@@ -890,10 +878,10 @@
       <c r="C5" s="1">
         <v>36298</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="14">
         <v>36431</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="5">
         <f t="shared" si="0"/>
         <v>133</v>
       </c>
@@ -919,7 +907,7 @@
       <c r="N5" s="6">
         <v>2.4512821035887336</v>
       </c>
-      <c r="O5" s="23"/>
+      <c r="O5" s="5"/>
       <c r="P5" s="6">
         <v>5.0199999999999996</v>
       </c>
@@ -970,10 +958,10 @@
       <c r="C6" s="1">
         <v>36298</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="14">
         <v>36445</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="5">
         <f t="shared" si="0"/>
         <v>147</v>
       </c>
@@ -999,7 +987,7 @@
       <c r="N6" s="6">
         <v>1.1765161313553172</v>
       </c>
-      <c r="O6" s="23"/>
+      <c r="O6" s="5"/>
       <c r="P6" s="6">
         <v>4.33</v>
       </c>
@@ -1013,9 +1001,7 @@
       <c r="T6" s="5">
         <v>33.347144673772313</v>
       </c>
-      <c r="U6" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="U6" s="5"/>
       <c r="V6" s="5">
         <v>7.9994730161642149</v>
       </c>
@@ -1050,10 +1036,10 @@
       <c r="C7" s="1">
         <v>36298</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="14">
         <v>36459</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="5">
         <f t="shared" si="0"/>
         <v>161</v>
       </c>
@@ -1079,7 +1065,7 @@
       <c r="N7" s="6">
         <v>1.2712457916798832</v>
       </c>
-      <c r="O7" s="23"/>
+      <c r="O7" s="5"/>
       <c r="P7" s="6">
         <v>4.29</v>
       </c>
@@ -1130,10 +1116,10 @@
       <c r="C8" s="1">
         <v>36298</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="14">
         <v>36473</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="5">
         <f t="shared" si="0"/>
         <v>175</v>
       </c>
@@ -1159,7 +1145,7 @@
       <c r="N8" s="6">
         <v>0.83799005345431432</v>
       </c>
-      <c r="O8" s="23"/>
+      <c r="O8" s="5"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="6">
@@ -1206,10 +1192,10 @@
       <c r="C9" s="1">
         <v>36298</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="14">
         <v>36487</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="5">
         <f t="shared" si="0"/>
         <v>189</v>
       </c>
@@ -1235,7 +1221,7 @@
         <v>284.99444444444447</v>
       </c>
       <c r="N9" s="6"/>
-      <c r="O9" s="23">
+      <c r="O9" s="5">
         <v>9</v>
       </c>
       <c r="P9" s="6"/>
@@ -1278,139 +1264,136 @@
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="5"/>
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="21"/>
-    </row>
-    <row r="12" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="21"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-    </row>
-    <row r="13" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="21"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-    </row>
-    <row r="14" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="12"/>
-    </row>
-    <row r="15" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="12"/>
-    </row>
-    <row r="16" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="12"/>
-    </row>
-    <row r="17" spans="3:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="8"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="21"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="5"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="5"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="7"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="7"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="7"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="5"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
     </row>
     <row r="18" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="21"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="5"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="3"/>
@@ -1426,8 +1409,8 @@
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="21"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="5"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="3"/>
@@ -1443,8 +1426,8 @@
     </row>
     <row r="20" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="21"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="5"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="3"/>
@@ -1460,8 +1443,8 @@
     </row>
     <row r="21" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="21"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="5"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="3"/>
@@ -1477,8 +1460,8 @@
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="21"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="5"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="3"/>
@@ -1494,8 +1477,8 @@
     </row>
     <row r="23" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C23" s="1"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="21"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="5"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="3"/>
@@ -1512,7 +1495,7 @@
     <row r="24" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="21"/>
+      <c r="E24" s="5"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="3"/>
@@ -1529,7 +1512,7 @@
     <row r="25" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="21"/>
+      <c r="E25" s="5"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="3"/>
@@ -1546,7 +1529,7 @@
     <row r="26" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="21"/>
+      <c r="E26" s="5"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="3"/>
@@ -1563,7 +1546,7 @@
     <row r="27" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="21"/>
+      <c r="E27" s="5"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="3"/>
@@ -1580,7 +1563,7 @@
     <row r="28" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="21"/>
+      <c r="E28" s="5"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="3"/>
@@ -1597,7 +1580,7 @@
     <row r="29" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="21"/>
+      <c r="E29" s="5"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="3"/>
@@ -1614,7 +1597,7 @@
     <row r="30" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="21"/>
+      <c r="E30" s="5"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="3"/>
@@ -1631,7 +1614,7 @@
     <row r="31" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="21"/>
+      <c r="E31" s="5"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="3"/>
@@ -1648,7 +1631,7 @@
     <row r="32" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="21"/>
+      <c r="E32" s="5"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="3"/>
@@ -1665,7 +1648,7 @@
     <row r="33" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="21"/>
+      <c r="E33" s="5"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="3"/>
@@ -1682,7 +1665,7 @@
     <row r="34" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="21"/>
+      <c r="E34" s="5"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="3"/>
@@ -1699,7 +1682,7 @@
     <row r="35" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="21"/>
+      <c r="E35" s="5"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="3"/>
@@ -1716,7 +1699,7 @@
     <row r="36" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="21"/>
+      <c r="E36" s="5"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="3"/>
@@ -1733,7 +1716,7 @@
     <row r="37" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="21"/>
+      <c r="E37" s="5"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="3"/>
@@ -1750,7 +1733,7 @@
     <row r="38" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="21"/>
+      <c r="E38" s="5"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="3"/>
@@ -1767,7 +1750,7 @@
     <row r="39" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="21"/>
+      <c r="E39" s="5"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="3"/>
@@ -1784,7 +1767,7 @@
     <row r="40" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="21"/>
+      <c r="E40" s="5"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="3"/>
@@ -1801,7 +1784,7 @@
     <row r="41" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="21"/>
+      <c r="E41" s="5"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="3"/>
@@ -1818,7 +1801,7 @@
     <row r="42" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="21"/>
+      <c r="E42" s="5"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="3"/>
@@ -1835,7 +1818,7 @@
     <row r="43" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="21"/>
+      <c r="E43" s="5"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="3"/>
@@ -1852,7 +1835,7 @@
     <row r="44" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="21"/>
+      <c r="E44" s="5"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="3"/>
@@ -1869,7 +1852,7 @@
     <row r="45" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="21"/>
+      <c r="E45" s="5"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="3"/>
@@ -1886,7 +1869,7 @@
     <row r="46" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="21"/>
+      <c r="E46" s="5"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="3"/>
@@ -1903,7 +1886,7 @@
     <row r="47" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="21"/>
+      <c r="E47" s="5"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="3"/>
@@ -1920,7 +1903,7 @@
     <row r="48" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="21"/>
+      <c r="E48" s="5"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="3"/>
@@ -1937,7 +1920,7 @@
     <row r="49" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="21"/>
+      <c r="E49" s="5"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="3"/>
@@ -1954,7 +1937,7 @@
     <row r="50" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="21"/>
+      <c r="E50" s="5"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="3"/>
@@ -1971,7 +1954,7 @@
     <row r="51" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="21"/>
+      <c r="E51" s="5"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="3"/>
@@ -1988,7 +1971,7 @@
     <row r="52" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="21"/>
+      <c r="E52" s="5"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="3"/>
@@ -2005,7 +1988,7 @@
     <row r="53" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="21"/>
+      <c r="E53" s="5"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="3"/>
@@ -2022,7 +2005,7 @@
     <row r="54" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="21"/>
+      <c r="E54" s="5"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="3"/>
@@ -2039,7 +2022,7 @@
     <row r="55" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
-      <c r="E55" s="21"/>
+      <c r="E55" s="5"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="3"/>
@@ -2056,7 +2039,7 @@
     <row r="56" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="21"/>
+      <c r="E56" s="5"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="3"/>
@@ -2073,7 +2056,7 @@
     <row r="57" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="21"/>
+      <c r="E57" s="5"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="3"/>
@@ -2090,7 +2073,7 @@
     <row r="58" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="21"/>
+      <c r="E58" s="5"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="3"/>
@@ -2107,7 +2090,7 @@
     <row r="59" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
-      <c r="E59" s="21"/>
+      <c r="E59" s="5"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="3"/>
@@ -2124,7 +2107,7 @@
     <row r="60" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
-      <c r="E60" s="21"/>
+      <c r="E60" s="5"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="3"/>
@@ -2141,7 +2124,7 @@
     <row r="61" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
-      <c r="E61" s="21"/>
+      <c r="E61" s="5"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="3"/>
@@ -2158,7 +2141,7 @@
     <row r="62" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
-      <c r="E62" s="21"/>
+      <c r="E62" s="5"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="3"/>
@@ -2175,7 +2158,7 @@
     <row r="63" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
-      <c r="E63" s="21"/>
+      <c r="E63" s="5"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="3"/>
@@ -2192,7 +2175,7 @@
     <row r="64" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
-      <c r="E64" s="21"/>
+      <c r="E64" s="5"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="3"/>
@@ -2209,7 +2192,7 @@
     <row r="65" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-      <c r="E65" s="21"/>
+      <c r="E65" s="5"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" s="3"/>
@@ -2226,7 +2209,7 @@
     <row r="66" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
-      <c r="E66" s="21"/>
+      <c r="E66" s="5"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
       <c r="I66" s="3"/>
@@ -2243,7 +2226,7 @@
     <row r="67" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
-      <c r="E67" s="21"/>
+      <c r="E67" s="5"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="3"/>
@@ -2260,7 +2243,7 @@
     <row r="68" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-      <c r="E68" s="21"/>
+      <c r="E68" s="5"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="3"/>
@@ -2277,7 +2260,7 @@
     <row r="69" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-      <c r="E69" s="21"/>
+      <c r="E69" s="5"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="3"/>
@@ -2294,7 +2277,7 @@
     <row r="70" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-      <c r="E70" s="21"/>
+      <c r="E70" s="5"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="3"/>
@@ -2311,7 +2294,7 @@
     <row r="71" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-      <c r="E71" s="21"/>
+      <c r="E71" s="5"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="3"/>
@@ -2328,7 +2311,7 @@
     <row r="72" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
-      <c r="E72" s="21"/>
+      <c r="E72" s="5"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="3"/>

--- a/Tests/Validation/Canola/Harden1999.xlsx
+++ b/Tests/Validation/Canola/Harden1999.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ApsimX\Tests\Validation\Canola\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Repos\ApsimX\Tests\Validation\Canola\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4D98F2-1BFF-4783-910B-7E1F938BBBCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C7D79D-CCE5-430F-A015-73F4A649FB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27675" yWindow="1125" windowWidth="21600" windowHeight="11280" xr2:uid="{DCD4BBDB-2039-4016-B509-C04A516B8513}"/>
+    <workbookView xWindow="28690" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{DCD4BBDB-2039-4016-B509-C04A516B8513}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -138,8 +138,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -193,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -209,6 +211,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,38 +529,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C11D26-4E0C-495C-A0BC-9CE09D11AC25}">
   <dimension ref="A1:AH83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.1328125" customWidth="1"/>
+    <col min="2" max="2" width="18.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.265625" customWidth="1"/>
+    <col min="7" max="7" width="23.1328125" customWidth="1"/>
+    <col min="8" max="8" width="23.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.73046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.86328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.265625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="28" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.59765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.73046875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.3984375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.73046875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.265625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.3984375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="16" bestFit="1" customWidth="1"/>
     <col min="25" max="26" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -642,7 +646,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -679,11 +683,11 @@
         <v>0.25297144457579934</v>
       </c>
       <c r="O2" s="5"/>
-      <c r="P2" s="6">
-        <v>6.31</v>
-      </c>
-      <c r="Q2" s="6">
-        <v>4.6900000000000004</v>
+      <c r="P2" s="15">
+        <v>6.3099999999999989E-2</v>
+      </c>
+      <c r="Q2" s="16">
+        <v>4.6900000000000004E-2</v>
       </c>
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
@@ -717,7 +721,7 @@
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -754,11 +758,11 @@
         <v>1.7329083333333333</v>
       </c>
       <c r="O3" s="5"/>
-      <c r="P3" s="6">
-        <v>5.18</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>3.7</v>
+      <c r="P3" s="15">
+        <v>5.1799999999999999E-2</v>
+      </c>
+      <c r="Q3" s="16">
+        <v>3.7000000000000005E-2</v>
       </c>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
@@ -792,7 +796,7 @@
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -830,11 +834,11 @@
       <c r="O4" s="5">
         <v>6</v>
       </c>
-      <c r="P4" s="6">
-        <v>4.78</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>2.3199999999999998</v>
+      <c r="P4" s="15">
+        <v>4.7800000000000002E-2</v>
+      </c>
+      <c r="Q4" s="16">
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
@@ -868,7 +872,7 @@
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -908,14 +912,14 @@
         <v>2.4512821035887336</v>
       </c>
       <c r="O5" s="5"/>
-      <c r="P5" s="6">
-        <v>5.0199999999999996</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>1.66</v>
-      </c>
-      <c r="R5" s="6">
-        <v>4.38</v>
+      <c r="P5" s="15">
+        <v>5.0199999999999995E-2</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>1.66E-2</v>
+      </c>
+      <c r="R5" s="15">
+        <v>4.3799999999999999E-2</v>
       </c>
       <c r="S5" s="6"/>
       <c r="T5" s="5">
@@ -948,7 +952,7 @@
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -988,14 +992,14 @@
         <v>1.1765161313553172</v>
       </c>
       <c r="O6" s="5"/>
-      <c r="P6" s="6">
-        <v>4.33</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>1.22</v>
-      </c>
-      <c r="R6" s="6">
-        <v>3</v>
+      <c r="P6" s="15">
+        <v>4.3299999999999998E-2</v>
+      </c>
+      <c r="Q6" s="16">
+        <v>1.2199999999999999E-2</v>
+      </c>
+      <c r="R6" s="15">
+        <v>0.03</v>
       </c>
       <c r="S6" s="6"/>
       <c r="T6" s="5">
@@ -1026,7 +1030,7 @@
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1066,14 +1070,14 @@
         <v>1.2712457916798832</v>
       </c>
       <c r="O7" s="5"/>
-      <c r="P7" s="6">
-        <v>4.29</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>1.48</v>
-      </c>
-      <c r="R7" s="6">
-        <v>2.0299999999999998</v>
+      <c r="P7" s="15">
+        <v>4.2900000000000001E-2</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="R7" s="15">
+        <v>2.0299999999999999E-2</v>
       </c>
       <c r="S7" s="6"/>
       <c r="T7" s="5">
@@ -1106,7 +1110,7 @@
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1147,9 +1151,9 @@
       </c>
       <c r="O8" s="5"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6">
-        <v>2.5</v>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="15">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="S8" s="6"/>
       <c r="T8" s="5">
@@ -1182,7 +1186,7 @@
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1225,12 +1229,12 @@
         <v>9</v>
       </c>
       <c r="P9" s="6"/>
-      <c r="Q9" s="6">
-        <v>0.92</v>
+      <c r="Q9" s="16">
+        <v>9.1999999999999998E-3</v>
       </c>
       <c r="R9" s="6"/>
-      <c r="S9" s="6">
-        <v>3.8</v>
+      <c r="S9" s="16">
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="T9" s="5">
         <v>86.181969696219952</v>
@@ -1262,18 +1266,18 @@
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.45">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="5"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.45">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.45">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="5"/>
@@ -1290,7 +1294,7 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.45">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="5"/>
@@ -1307,7 +1311,7 @@
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
@@ -1329,7 +1333,7 @@
       <c r="S14" s="11"/>
       <c r="T14" s="7"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
@@ -1351,7 +1355,7 @@
       <c r="S15" s="13"/>
       <c r="T15" s="7"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
@@ -1373,7 +1377,7 @@
       <c r="S16" s="12"/>
       <c r="T16" s="7"/>
     </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C17" s="1"/>
       <c r="D17" s="10"/>
       <c r="E17" s="5"/>
@@ -1390,7 +1394,7 @@
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C18" s="1"/>
       <c r="D18" s="10"/>
       <c r="E18" s="5"/>
@@ -1407,7 +1411,7 @@
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C19" s="1"/>
       <c r="D19" s="10"/>
       <c r="E19" s="5"/>
@@ -1424,7 +1428,7 @@
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
     </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C20" s="1"/>
       <c r="D20" s="10"/>
       <c r="E20" s="5"/>
@@ -1441,7 +1445,7 @@
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C21" s="1"/>
       <c r="D21" s="10"/>
       <c r="E21" s="5"/>
@@ -1458,7 +1462,7 @@
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C22" s="1"/>
       <c r="D22" s="10"/>
       <c r="E22" s="5"/>
@@ -1475,7 +1479,7 @@
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C23" s="1"/>
       <c r="D23" s="10"/>
       <c r="E23" s="5"/>
@@ -1492,7 +1496,7 @@
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="5"/>
@@ -1509,7 +1513,7 @@
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="5"/>
@@ -1526,7 +1530,7 @@
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
     </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="5"/>
@@ -1543,7 +1547,7 @@
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="5"/>
@@ -1560,7 +1564,7 @@
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="5"/>
@@ -1577,7 +1581,7 @@
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
     </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="5"/>
@@ -1594,7 +1598,7 @@
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="5"/>
@@ -1611,7 +1615,7 @@
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
     </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="5"/>
@@ -1628,7 +1632,7 @@
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
     </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="5"/>
@@ -1645,7 +1649,7 @@
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
     </row>
-    <row r="33" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="5"/>
@@ -1662,7 +1666,7 @@
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
     </row>
-    <row r="34" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="5"/>
@@ -1679,7 +1683,7 @@
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
     </row>
-    <row r="35" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="5"/>
@@ -1696,7 +1700,7 @@
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
     </row>
-    <row r="36" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="5"/>
@@ -1713,7 +1717,7 @@
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
     </row>
-    <row r="37" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="5"/>
@@ -1730,7 +1734,7 @@
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
     </row>
-    <row r="38" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="5"/>
@@ -1747,7 +1751,7 @@
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
     </row>
-    <row r="39" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="5"/>
@@ -1764,7 +1768,7 @@
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
     </row>
-    <row r="40" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="5"/>
@@ -1781,7 +1785,7 @@
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
     </row>
-    <row r="41" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="5"/>
@@ -1798,7 +1802,7 @@
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
     </row>
-    <row r="42" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="5"/>
@@ -1815,7 +1819,7 @@
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
     </row>
-    <row r="43" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="5"/>
@@ -1832,7 +1836,7 @@
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
     </row>
-    <row r="44" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="5"/>
@@ -1849,7 +1853,7 @@
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
     </row>
-    <row r="45" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="5"/>
@@ -1866,7 +1870,7 @@
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
     </row>
-    <row r="46" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="5"/>
@@ -1883,7 +1887,7 @@
       <c r="R46" s="4"/>
       <c r="S46" s="4"/>
     </row>
-    <row r="47" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="5"/>
@@ -1900,7 +1904,7 @@
       <c r="R47" s="4"/>
       <c r="S47" s="4"/>
     </row>
-    <row r="48" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="5"/>
@@ -1917,7 +1921,7 @@
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="5"/>
@@ -1934,7 +1938,7 @@
       <c r="R49" s="4"/>
       <c r="S49" s="4"/>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="5"/>
@@ -1951,7 +1955,7 @@
       <c r="R50" s="4"/>
       <c r="S50" s="4"/>
     </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="5"/>
@@ -1968,7 +1972,7 @@
       <c r="R51" s="4"/>
       <c r="S51" s="4"/>
     </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="5"/>
@@ -1985,7 +1989,7 @@
       <c r="R52" s="4"/>
       <c r="S52" s="4"/>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="5"/>
@@ -2002,7 +2006,7 @@
       <c r="R53" s="4"/>
       <c r="S53" s="4"/>
     </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="5"/>
@@ -2019,7 +2023,7 @@
       <c r="R54" s="4"/>
       <c r="S54" s="4"/>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="5"/>
@@ -2036,7 +2040,7 @@
       <c r="R55" s="4"/>
       <c r="S55" s="4"/>
     </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="5"/>
@@ -2053,7 +2057,7 @@
       <c r="R56" s="4"/>
       <c r="S56" s="4"/>
     </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="5"/>
@@ -2070,7 +2074,7 @@
       <c r="R57" s="4"/>
       <c r="S57" s="4"/>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="5"/>
@@ -2087,7 +2091,7 @@
       <c r="R58" s="4"/>
       <c r="S58" s="4"/>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="5"/>
@@ -2104,7 +2108,7 @@
       <c r="R59" s="4"/>
       <c r="S59" s="4"/>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="5"/>
@@ -2121,7 +2125,7 @@
       <c r="R60" s="4"/>
       <c r="S60" s="4"/>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="5"/>
@@ -2138,7 +2142,7 @@
       <c r="R61" s="4"/>
       <c r="S61" s="4"/>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="5"/>
@@ -2155,7 +2159,7 @@
       <c r="R62" s="4"/>
       <c r="S62" s="4"/>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="5"/>
@@ -2172,7 +2176,7 @@
       <c r="R63" s="4"/>
       <c r="S63" s="4"/>
     </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:19" x14ac:dyDescent="0.45">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="5"/>
@@ -2189,7 +2193,7 @@
       <c r="R64" s="4"/>
       <c r="S64" s="4"/>
     </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="5"/>
@@ -2206,7 +2210,7 @@
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
     </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="5"/>
@@ -2223,7 +2227,7 @@
       <c r="R66" s="4"/>
       <c r="S66" s="4"/>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="5"/>
@@ -2240,7 +2244,7 @@
       <c r="R67" s="4"/>
       <c r="S67" s="4"/>
     </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="5"/>
@@ -2257,7 +2261,7 @@
       <c r="R68" s="4"/>
       <c r="S68" s="4"/>
     </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="5"/>
@@ -2274,7 +2278,7 @@
       <c r="R69" s="4"/>
       <c r="S69" s="4"/>
     </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="5"/>
@@ -2291,7 +2295,7 @@
       <c r="R70" s="4"/>
       <c r="S70" s="4"/>
     </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="5"/>
@@ -2308,7 +2312,7 @@
       <c r="R71" s="4"/>
       <c r="S71" s="4"/>
     </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="5"/>
@@ -2325,7 +2329,7 @@
       <c r="R72" s="4"/>
       <c r="S72" s="4"/>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -2342,7 +2346,7 @@
       <c r="R73" s="4"/>
       <c r="S73" s="4"/>
     </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -2359,7 +2363,7 @@
       <c r="R74" s="4"/>
       <c r="S74" s="4"/>
     </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -2376,7 +2380,7 @@
       <c r="R75" s="4"/>
       <c r="S75" s="4"/>
     </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2394,7 +2398,7 @@
       <c r="R76" s="4"/>
       <c r="S76" s="4"/>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2412,7 +2416,7 @@
       <c r="R77" s="4"/>
       <c r="S77" s="4"/>
     </row>
-    <row r="78" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2430,7 +2434,7 @@
       <c r="R78" s="4"/>
       <c r="S78" s="4"/>
     </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2448,7 +2452,7 @@
       <c r="R79" s="4"/>
       <c r="S79" s="4"/>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2466,7 +2470,7 @@
       <c r="R80" s="4"/>
       <c r="S80" s="4"/>
     </row>
-    <row r="81" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2484,7 +2488,7 @@
       <c r="R81" s="4"/>
       <c r="S81" s="4"/>
     </row>
-    <row r="82" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2502,7 +2506,7 @@
       <c r="R82" s="4"/>
       <c r="S82" s="4"/>
     </row>
-    <row r="83" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2521,7 +2525,10 @@
       <c r="S83" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:P72" xr:uid="{A8C9D5A0-926D-495F-8EC7-A52996829614}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Aptos"&amp;12&amp;KFF0000 UNOFFICIAL&amp;1#_x000D_</oddHeader>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Aptos"&amp;12&amp;KFF0000 UNOFFICIAL</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>